--- a/csv_files/Try 3/Output_j4.xlsx
+++ b/csv_files/Try 3/Output_j4.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\spide\Documents\TU Delft\Thesis Project\MSc Thesis - Piotr K\PiotrThesis\PiotrThesis\csv_files\Try 3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59AE7CBF-A549-4FCB-9390-00D2078603ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB22AD1C-8A94-4D35-B956-0F823A859DCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LCOH" sheetId="12" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="29">
   <si>
     <t>longitude</t>
   </si>
@@ -125,6 +125,12 @@
   </si>
   <si>
     <t>Total yearly cost</t>
+  </si>
+  <si>
+    <t>Present Value Costs</t>
+  </si>
+  <si>
+    <t>NPV Costs</t>
   </si>
 </sst>
 </file>
@@ -497,14 +503,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8649244D-6645-43CB-867C-59DC8AC0D353}">
-  <dimension ref="A1:AA38"/>
+  <dimension ref="A1:AK38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:C18"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -536,6 +543,9 @@
         <v>18</v>
       </c>
       <c r="F2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G2" t="s">
         <v>19</v>
       </c>
     </row>
@@ -555,12 +565,16 @@
         <v>542502844.03413725</v>
       </c>
       <c r="E3">
-        <f>SUM(O23:Y23)</f>
+        <f t="shared" ref="E3:E18" si="0">SUM(O23:Y23)</f>
         <v>6503448373.9403629</v>
       </c>
       <c r="F3">
-        <f>E3/D3</f>
-        <v>11.987860424066515</v>
+        <f>AK23</f>
+        <v>3047448323.3180575</v>
+      </c>
+      <c r="G3">
+        <f>F3/D3</f>
+        <v>5.6173868152593416</v>
       </c>
       <c r="Q3">
         <v>2020</v>
@@ -604,20 +618,24 @@
         <v>56.35</v>
       </c>
       <c r="C4">
-        <f t="shared" ref="C4:C18" si="0">M24</f>
+        <f t="shared" ref="C4:C18" si="1">M24</f>
         <v>3.5871516592664521</v>
       </c>
       <c r="D4">
-        <f t="shared" ref="D4:D18" si="1">$Q$8</f>
+        <f t="shared" ref="D4:D18" si="2">$Q$8</f>
         <v>542502844.03413725</v>
       </c>
       <c r="E4">
-        <f>SUM(O24:Y24)</f>
+        <f t="shared" si="0"/>
         <v>6402485754.7716694</v>
       </c>
       <c r="F4">
-        <f t="shared" ref="F4:F18" si="2">E4/D4</f>
-        <v>11.801755189266418</v>
+        <f t="shared" ref="F4:F18" si="3">AK24</f>
+        <v>2998408193.6630869</v>
+      </c>
+      <c r="G4">
+        <f t="shared" ref="G4:G18" si="4">F4/D4</f>
+        <v>5.5269907367977051</v>
       </c>
       <c r="P4" t="s">
         <v>20</v>
@@ -664,20 +682,24 @@
         <v>56.35</v>
       </c>
       <c r="C5">
+        <f t="shared" si="1"/>
+        <v>3.566836750059506</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="2"/>
+        <v>542502844.03413725</v>
+      </c>
+      <c r="E5">
         <f t="shared" si="0"/>
-        <v>3.566836750059506</v>
-      </c>
-      <c r="D5">
-        <f t="shared" si="1"/>
-        <v>542502844.03413725</v>
-      </c>
-      <c r="E5">
-        <f>SUM(O25:Y25)</f>
         <v>6370151254.3354788</v>
       </c>
       <c r="F5">
-        <f t="shared" si="2"/>
-        <v>11.742152735948853</v>
+        <f t="shared" si="3"/>
+        <v>2985132552.2840009</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="4"/>
+        <v>5.5025196367379046</v>
       </c>
       <c r="P5" t="s">
         <v>21</v>
@@ -687,43 +709,43 @@
         <v>1</v>
       </c>
       <c r="R5">
-        <f t="shared" ref="R5:AA5" si="3">1/(1+$R$1)^R4</f>
+        <f t="shared" ref="R5:AA5" si="5">1/(1+$R$1)^R4</f>
         <v>0.79383224102016958</v>
       </c>
       <c r="S5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.63016962688310452</v>
       </c>
       <c r="T5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.50024896713145905</v>
       </c>
       <c r="U5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.39711375864599124</v>
       </c>
       <c r="V5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.31524170496588994</v>
       </c>
       <c r="W5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.25024902911609154</v>
       </c>
       <c r="X5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.19865574759634863</v>
       </c>
       <c r="Y5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.1576993373059466</v>
       </c>
       <c r="Z5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.12518681834097523</v>
       </c>
       <c r="AA5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>9.9377332549801231E-2</v>
       </c>
     </row>
@@ -735,20 +757,24 @@
         <v>56.35</v>
       </c>
       <c r="C6">
+        <f t="shared" si="1"/>
+        <v>3.5858630140793339</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="2"/>
+        <v>542502844.03413725</v>
+      </c>
+      <c r="E6">
         <f t="shared" si="0"/>
-        <v>3.5858630140793339</v>
-      </c>
-      <c r="D6">
-        <f t="shared" si="1"/>
-        <v>542502844.03413725</v>
-      </c>
-      <c r="E6">
-        <f>SUM(O26:Y26)</f>
         <v>6400820710.6490049</v>
       </c>
       <c r="F6">
-        <f t="shared" si="2"/>
-        <v>11.798685999600456</v>
+        <f t="shared" si="3"/>
+        <v>2997878502.9069414</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="4"/>
+        <v>5.5260143534257651</v>
       </c>
       <c r="P6" t="s">
         <v>22</v>
@@ -758,43 +784,43 @@
         <v>121425742.574257</v>
       </c>
       <c r="R6">
-        <f t="shared" ref="R6:AA6" si="4">1000*121425.742574257</f>
+        <f t="shared" ref="R6:AA6" si="6">1000*121425.742574257</f>
         <v>121425742.574257</v>
       </c>
       <c r="S6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>121425742.574257</v>
       </c>
       <c r="T6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>121425742.574257</v>
       </c>
       <c r="U6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>121425742.574257</v>
       </c>
       <c r="V6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>121425742.574257</v>
       </c>
       <c r="W6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>121425742.574257</v>
       </c>
       <c r="X6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>121425742.574257</v>
       </c>
       <c r="Y6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>121425742.574257</v>
       </c>
       <c r="Z6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>121425742.574257</v>
       </c>
       <c r="AA6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>121425742.574257</v>
       </c>
     </row>
@@ -806,20 +832,24 @@
         <v>55.35</v>
       </c>
       <c r="C7">
+        <f t="shared" si="1"/>
+        <v>3.4977945773616281</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="2"/>
+        <v>542502844.03413725</v>
+      </c>
+      <c r="E7">
         <f t="shared" si="0"/>
-        <v>3.4977945773616281</v>
-      </c>
-      <c r="D7">
-        <f t="shared" si="1"/>
-        <v>542502844.03413725</v>
-      </c>
-      <c r="E7">
-        <f>SUM(O27:Y27)</f>
         <v>6317975673.4221201</v>
       </c>
       <c r="F7">
-        <f t="shared" si="2"/>
-        <v>11.645977054130537</v>
+        <f t="shared" si="3"/>
+        <v>2972016932.8947883</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="4"/>
+        <v>5.4783435065416404</v>
       </c>
       <c r="P7" t="s">
         <v>23</v>
@@ -829,43 +859,43 @@
         <v>121425742.574257</v>
       </c>
       <c r="R7">
-        <f t="shared" ref="R7:AA7" si="5">R6*R5</f>
+        <f t="shared" ref="R7:AA7" si="7">R6*R5</f>
         <v>96391669.34526065</v>
       </c>
       <c r="S7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>76518814.892023429</v>
       </c>
       <c r="T7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>60743102.305942498</v>
       </c>
       <c r="U7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>48219833.030043758</v>
       </c>
       <c r="V7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>38278458.115858026</v>
       </c>
       <c r="W7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>30386674.188908275</v>
       </c>
       <c r="X7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>24121921.668530803</v>
       </c>
       <c r="Y7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>19148759.135842796</v>
       </c>
       <c r="Z7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>15200902.377561532</v>
       </c>
       <c r="AA7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>12066966.399908496</v>
       </c>
     </row>
@@ -877,20 +907,24 @@
         <v>55.35</v>
       </c>
       <c r="C8">
+        <f t="shared" si="1"/>
+        <v>3.451277364160235</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="2"/>
+        <v>542502844.03413725</v>
+      </c>
+      <c r="E8">
         <f t="shared" si="0"/>
-        <v>3.451277364160235</v>
-      </c>
-      <c r="D8">
-        <f t="shared" si="1"/>
-        <v>542502844.03413725</v>
-      </c>
-      <c r="E8">
-        <f>SUM(O28:Y28)</f>
         <v>6253438343.5261469</v>
       </c>
       <c r="F8">
-        <f t="shared" si="2"/>
-        <v>11.52701485770026</v>
+        <f t="shared" si="3"/>
+        <v>2946004666.4676099</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="4"/>
+        <v>5.4303948797035817</v>
       </c>
       <c r="P8" s="2" t="s">
         <v>24</v>
@@ -908,20 +942,24 @@
         <v>55.35</v>
       </c>
       <c r="C9">
+        <f t="shared" si="1"/>
+        <v>3.4366236786565341</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="2"/>
+        <v>542502844.03413725</v>
+      </c>
+      <c r="E9">
         <f t="shared" si="0"/>
-        <v>3.4366236786565341</v>
-      </c>
-      <c r="D9">
-        <f t="shared" si="1"/>
-        <v>542502844.03413725</v>
-      </c>
-      <c r="E9">
-        <f>SUM(O29:Y29)</f>
         <v>6233522012.5200033</v>
       </c>
       <c r="F9">
-        <f t="shared" si="2"/>
-        <v>11.4903029192742</v>
+        <f t="shared" si="3"/>
+        <v>2937861077.6053534</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="4"/>
+        <v>5.4153837346896694</v>
       </c>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.25">
@@ -932,20 +970,24 @@
         <v>55.35</v>
       </c>
       <c r="C10">
+        <f t="shared" si="1"/>
+        <v>3.4579495712665489</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="2"/>
+        <v>542502844.03413725</v>
+      </c>
+      <c r="E10">
         <f t="shared" si="0"/>
-        <v>3.4579495712665489</v>
-      </c>
-      <c r="D10">
-        <f t="shared" si="1"/>
-        <v>542502844.03413725</v>
-      </c>
-      <c r="E10">
-        <f>SUM(O30:Y30)</f>
         <v>6260757528.1435328</v>
       </c>
       <c r="F10">
-        <f t="shared" si="2"/>
-        <v>11.540506371519726</v>
+        <f t="shared" si="3"/>
+        <v>2948528773.4936342</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="4"/>
+        <v>5.4350475871571593</v>
       </c>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.25">
@@ -956,20 +998,24 @@
         <v>54.35</v>
       </c>
       <c r="C11">
+        <f t="shared" si="1"/>
+        <v>3.3819286004576181</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="2"/>
+        <v>542502844.03413725</v>
+      </c>
+      <c r="E11">
         <f t="shared" si="0"/>
-        <v>3.3819286004576181</v>
-      </c>
-      <c r="D11">
-        <f t="shared" si="1"/>
-        <v>542502844.03413725</v>
-      </c>
-      <c r="E11">
-        <f>SUM(O31:Y31)</f>
         <v>6177928513.3185282</v>
       </c>
       <c r="F11">
-        <f t="shared" si="2"/>
-        <v>11.387826960276321</v>
+        <f t="shared" si="3"/>
+        <v>2918790462.3233442</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="4"/>
+        <v>5.3802307110848586</v>
       </c>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.25">
@@ -980,20 +1026,24 @@
         <v>54.35</v>
       </c>
       <c r="C12">
+        <f t="shared" si="1"/>
+        <v>3.3105626069236971</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="2"/>
+        <v>542502844.03413725</v>
+      </c>
+      <c r="E12">
         <f t="shared" si="0"/>
-        <v>3.3105626069236971</v>
-      </c>
-      <c r="D12">
-        <f t="shared" si="1"/>
-        <v>542502844.03413725</v>
-      </c>
-      <c r="E12">
-        <f>SUM(O32:Y32)</f>
         <v>6072384161.3942451</v>
       </c>
       <c r="F12">
-        <f t="shared" si="2"/>
-        <v>11.193276179418771</v>
+        <f t="shared" si="3"/>
+        <v>2873638955.1791592</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="4"/>
+        <v>5.2970025628074566</v>
       </c>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.25">
@@ -1004,20 +1054,24 @@
         <v>54.35</v>
       </c>
       <c r="C13">
+        <f t="shared" si="1"/>
+        <v>3.2766873654665272</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="2"/>
+        <v>542502844.03413725</v>
+      </c>
+      <c r="E13">
         <f t="shared" si="0"/>
-        <v>3.2766873654665272</v>
-      </c>
-      <c r="D13">
-        <f t="shared" si="1"/>
-        <v>542502844.03413725</v>
-      </c>
-      <c r="E13">
-        <f>SUM(O33:Y33)</f>
         <v>6021728494.5616312</v>
       </c>
       <c r="F13">
-        <f t="shared" si="2"/>
-        <v>11.099902167854278</v>
+        <f t="shared" si="3"/>
+        <v>2851502453.9281173</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="4"/>
+        <v>5.2561981661218447</v>
       </c>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.25">
@@ -1028,20 +1082,24 @@
         <v>54.35</v>
       </c>
       <c r="C14">
+        <f t="shared" si="1"/>
+        <v>3.3139981588637242</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="2"/>
+        <v>542502844.03413725</v>
+      </c>
+      <c r="E14">
         <f t="shared" si="0"/>
-        <v>3.3139981588637242</v>
-      </c>
-      <c r="D14">
-        <f t="shared" si="1"/>
-        <v>542502844.03413725</v>
-      </c>
-      <c r="E14">
-        <f>SUM(O34:Y34)</f>
         <v>6093228615.6535892</v>
       </c>
       <c r="F14">
-        <f t="shared" si="2"/>
-        <v>11.231698935149122</v>
+        <f t="shared" si="3"/>
+        <v>2886192330.3557711</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="4"/>
+        <v>5.3201423035750128</v>
       </c>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.25">
@@ -1052,20 +1110,24 @@
         <v>53.35</v>
       </c>
       <c r="C15">
+        <f t="shared" si="1"/>
+        <v>3.3803821046278602</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="2"/>
+        <v>542502844.03413725</v>
+      </c>
+      <c r="E15">
         <f t="shared" si="0"/>
-        <v>3.3803821046278602</v>
-      </c>
-      <c r="D15">
-        <f t="shared" si="1"/>
-        <v>542502844.03413725</v>
-      </c>
-      <c r="E15">
-        <f>SUM(O35:Y35)</f>
         <v>6228106100.1580925</v>
       </c>
       <c r="F15">
-        <f t="shared" si="2"/>
-        <v>11.480319723017315</v>
+        <f t="shared" si="3"/>
+        <v>2951374834.216857</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="4"/>
+        <v>5.4402937545358565</v>
       </c>
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.25">
@@ -1076,23 +1138,27 @@
         <v>53.35</v>
       </c>
       <c r="C16">
+        <f t="shared" si="1"/>
+        <v>3.437192165847399</v>
+      </c>
+      <c r="D16">
+        <f t="shared" si="2"/>
+        <v>542502844.03413725</v>
+      </c>
+      <c r="E16">
         <f t="shared" si="0"/>
-        <v>3.437192165847399</v>
-      </c>
-      <c r="D16">
-        <f t="shared" si="1"/>
-        <v>542502844.03413725</v>
-      </c>
-      <c r="E16">
-        <f>SUM(O36:Y36)</f>
         <v>6503831287.6139603</v>
       </c>
       <c r="F16">
-        <f t="shared" si="2"/>
-        <v>11.988566252022641</v>
-      </c>
-    </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>3110193388.8622155</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="4"/>
+        <v>5.733045315918206</v>
+      </c>
+    </row>
+    <row r="17" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>6.78</v>
       </c>
@@ -1100,23 +1166,27 @@
         <v>53.35</v>
       </c>
       <c r="C17">
+        <f t="shared" si="1"/>
+        <v>3.5141187883880072</v>
+      </c>
+      <c r="D17">
+        <f t="shared" si="2"/>
+        <v>542502844.03413725</v>
+      </c>
+      <c r="E17">
         <f t="shared" si="0"/>
-        <v>3.5141187883880072</v>
-      </c>
-      <c r="D17">
-        <f t="shared" si="1"/>
-        <v>542502844.03413725</v>
-      </c>
-      <c r="E17">
-        <f>SUM(O37:Y37)</f>
         <v>6850838303.4297247</v>
       </c>
       <c r="F17">
-        <f t="shared" si="2"/>
-        <v>12.628207167516033</v>
-      </c>
-    </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>3309004981.6392274</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="4"/>
+        <v>6.0995163767860481</v>
+      </c>
+    </row>
+    <row r="18" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>7.78</v>
       </c>
@@ -1124,31 +1194,41 @@
         <v>53.35</v>
       </c>
       <c r="C18">
+        <f t="shared" si="1"/>
+        <v>3.8864438850214089</v>
+      </c>
+      <c r="D18">
+        <f t="shared" si="2"/>
+        <v>542502844.03413725</v>
+      </c>
+      <c r="E18">
         <f t="shared" si="0"/>
-        <v>3.8864438850214089</v>
-      </c>
-      <c r="D18">
-        <f t="shared" si="1"/>
-        <v>542502844.03413725</v>
-      </c>
-      <c r="E18">
-        <f>SUM(O38:Y38)</f>
         <v>7762705616.4102736</v>
       </c>
       <c r="F18">
-        <f t="shared" si="2"/>
-        <v>14.309059762130577</v>
-      </c>
-    </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>3768832799.2008753</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="4"/>
+        <v>6.9471208135523055</v>
+      </c>
+    </row>
+    <row r="21" spans="1:37" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>25</v>
       </c>
       <c r="O21" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z21" t="s">
+        <v>27</v>
+      </c>
+      <c r="AK21" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="22" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>0</v>
       </c>
@@ -1221,8 +1301,41 @@
       <c r="Y22">
         <v>2050</v>
       </c>
-    </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z22">
+        <v>2020</v>
+      </c>
+      <c r="AA22">
+        <v>2023</v>
+      </c>
+      <c r="AB22">
+        <v>2026</v>
+      </c>
+      <c r="AC22">
+        <v>2029</v>
+      </c>
+      <c r="AD22">
+        <v>2032</v>
+      </c>
+      <c r="AE22">
+        <v>2035</v>
+      </c>
+      <c r="AF22">
+        <v>2038</v>
+      </c>
+      <c r="AG22">
+        <v>2041</v>
+      </c>
+      <c r="AH22">
+        <v>2044</v>
+      </c>
+      <c r="AI22">
+        <v>2047</v>
+      </c>
+      <c r="AJ22">
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="23" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>4.78</v>
       </c>
@@ -1278,51 +1391,99 @@
         <v>121425742.574257</v>
       </c>
       <c r="O23">
-        <f t="shared" ref="O23:O38" si="6">C23*$N$23</f>
+        <f t="shared" ref="O23:O38" si="8">C23*$N$23</f>
         <v>844938887.39559114</v>
       </c>
       <c r="P23">
-        <f t="shared" ref="P23:P38" si="7">D23*$N$23</f>
+        <f t="shared" ref="P23:P38" si="9">D23*$N$23</f>
         <v>780153444.82102334</v>
       </c>
       <c r="Q23">
-        <f t="shared" ref="Q23:Q38" si="8">E23*$N$23</f>
+        <f t="shared" ref="Q23:Q38" si="10">E23*$N$23</f>
         <v>715368002.24645281</v>
       </c>
       <c r="R23">
-        <f t="shared" ref="R23:R38" si="9">F23*$N$23</f>
+        <f t="shared" ref="R23:R38" si="11">F23*$N$23</f>
         <v>650582559.67187977</v>
       </c>
       <c r="S23">
-        <f t="shared" ref="S23:S38" si="10">G23*$N$23</f>
+        <f t="shared" ref="S23:S38" si="12">G23*$N$23</f>
         <v>591708552.94665504</v>
       </c>
       <c r="T23">
-        <f t="shared" ref="T23:T38" si="11">H23*$N$23</f>
+        <f t="shared" ref="T23:T38" si="13">H23*$N$23</f>
         <v>535063131.2548396</v>
       </c>
       <c r="U23">
-        <f t="shared" ref="U23:U38" si="12">I23*$N$23</f>
+        <f t="shared" ref="U23:U38" si="14">I23*$N$23</f>
         <v>513831929.49207324</v>
       </c>
       <c r="V23">
-        <f t="shared" ref="V23:V38" si="13">J23*$N$23</f>
+        <f t="shared" ref="V23:V38" si="15">J23*$N$23</f>
         <v>493967120.08877748</v>
       </c>
       <c r="W23">
-        <f t="shared" ref="W23:W38" si="14">K23*$N$23</f>
+        <f t="shared" ref="W23:W38" si="16">K23*$N$23</f>
         <v>476622684.3815673</v>
       </c>
       <c r="X23">
-        <f t="shared" ref="X23:X38" si="15">L23*$N$23</f>
+        <f t="shared" ref="X23:X38" si="17">L23*$N$23</f>
         <v>459278248.67435628</v>
       </c>
       <c r="Y23">
-        <f t="shared" ref="Y23:Y38" si="16">M23*$N$23</f>
+        <f t="shared" ref="Y23:Y38" si="18">M23*$N$23</f>
         <v>441933812.96714675</v>
       </c>
-    </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z23">
+        <f>O23*Q$5</f>
+        <v>844938887.39559114</v>
+      </c>
+      <c r="AA23">
+        <f t="shared" ref="AA23:AJ38" si="19">P23*R$5</f>
+        <v>619310957.4418782</v>
+      </c>
+      <c r="AB23">
+        <f t="shared" si="19"/>
+        <v>450803187.05975902</v>
+      </c>
+      <c r="AC23">
+        <f t="shared" si="19"/>
+        <v>325453253.50959867</v>
+      </c>
+      <c r="AD23">
+        <f t="shared" si="19"/>
+        <v>234975607.48362669</v>
+      </c>
+      <c r="AE23">
+        <f t="shared" si="19"/>
+        <v>168674213.76116338</v>
+      </c>
+      <c r="AF23">
+        <f t="shared" si="19"/>
+        <v>128585941.48423932</v>
+      </c>
+      <c r="AG23">
+        <f t="shared" si="19"/>
+        <v>98129407.529251412</v>
+      </c>
+      <c r="AH23">
+        <f t="shared" si="19"/>
+        <v>75163081.47195451</v>
+      </c>
+      <c r="AI23">
+        <f t="shared" si="19"/>
+        <v>57495582.684757888</v>
+      </c>
+      <c r="AJ23">
+        <f t="shared" si="19"/>
+        <v>43918203.4962378</v>
+      </c>
+      <c r="AK23">
+        <f>SUM(Z23:AJ23)</f>
+        <v>3047448323.3180575</v>
+      </c>
+    </row>
+    <row r="24" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>5.78</v>
       </c>
@@ -1374,55 +1535,103 @@
         <v>3.5871516592664521</v>
       </c>
       <c r="N24">
-        <f t="shared" ref="N24:N38" si="17">1000*121425.742574257</f>
+        <f t="shared" ref="N24:N38" si="20">1000*121425.742574257</f>
         <v>121425742.574257</v>
       </c>
       <c r="O24">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>830907329.04627168</v>
       </c>
       <c r="P24">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>767241007.14346707</v>
       </c>
       <c r="Q24">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>703611707.47432029</v>
       </c>
       <c r="R24">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>640000109.70894217</v>
       </c>
       <c r="S24">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>582223625.07251358</v>
       </c>
       <c r="T24">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>527277789.86091495</v>
       </c>
       <c r="U24">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>506317243.83922875</v>
       </c>
       <c r="V24">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>486724054.06269675</v>
       </c>
       <c r="W24">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>469865576.77646834</v>
       </c>
       <c r="X24">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>452744757.83393902</v>
       </c>
       <c r="Y24">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>435572553.95290709</v>
       </c>
-    </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z24">
+        <f t="shared" ref="Z24:Z38" si="21">O24*Q$5</f>
+        <v>830907329.04627168</v>
+      </c>
+      <c r="AA24">
+        <f t="shared" si="19"/>
+        <v>609060648.10327041</v>
+      </c>
+      <c r="AB24">
+        <f t="shared" si="19"/>
+        <v>443394727.16967648</v>
+      </c>
+      <c r="AC24">
+        <f t="shared" si="19"/>
+        <v>320159393.84591877</v>
+      </c>
+      <c r="AD24">
+        <f t="shared" si="19"/>
+        <v>231209012.12504026</v>
+      </c>
+      <c r="AE24">
+        <f t="shared" si="19"/>
+        <v>166219949.46640107</v>
+      </c>
+      <c r="AF24">
+        <f t="shared" si="19"/>
+        <v>126705398.69550237</v>
+      </c>
+      <c r="AG24">
+        <f t="shared" si="19"/>
+        <v>96690530.832950637</v>
+      </c>
+      <c r="AH24">
+        <f t="shared" si="19"/>
+        <v>74097490.080525428</v>
+      </c>
+      <c r="AI24">
+        <f t="shared" si="19"/>
+        <v>56677675.753786147</v>
+      </c>
+      <c r="AJ24">
+        <f t="shared" si="19"/>
+        <v>43286038.543744288</v>
+      </c>
+      <c r="AK24">
+        <f t="shared" ref="AK24:AK38" si="22">SUM(Z24:AJ24)</f>
+        <v>2998408193.6630869</v>
+      </c>
+    </row>
+    <row r="25" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>6.78</v>
       </c>
@@ -1474,55 +1683,103 @@
         <v>3.566836750059506</v>
       </c>
       <c r="N25">
+        <f t="shared" si="20"/>
+        <v>121425742.574257</v>
+      </c>
+      <c r="O25">
+        <f t="shared" si="8"/>
+        <v>828080738.08695102</v>
+      </c>
+      <c r="P25">
+        <f t="shared" si="9"/>
+        <v>764398126.74698579</v>
+      </c>
+      <c r="Q25">
+        <f t="shared" si="10"/>
+        <v>700667784.86596918</v>
+      </c>
+      <c r="R25">
+        <f t="shared" si="11"/>
+        <v>636933096.29997551</v>
+      </c>
+      <c r="S25">
+        <f t="shared" si="12"/>
+        <v>578926510.75967848</v>
+      </c>
+      <c r="T25">
+        <f t="shared" si="13"/>
+        <v>523785332.64934218</v>
+      </c>
+      <c r="U25">
+        <f t="shared" si="14"/>
+        <v>503057896.99260819</v>
+      </c>
+      <c r="V25">
+        <f t="shared" si="15"/>
+        <v>483699105.21929175</v>
+      </c>
+      <c r="W25">
+        <f t="shared" si="16"/>
+        <v>467076153.12607259</v>
+      </c>
+      <c r="X25">
         <f t="shared" si="17"/>
-        <v>121425742.574257</v>
-      </c>
-      <c r="O25">
-        <f t="shared" si="6"/>
+        <v>450420708.57147855</v>
+      </c>
+      <c r="Y25">
+        <f t="shared" si="18"/>
+        <v>433105801.01712501</v>
+      </c>
+      <c r="Z25">
+        <f t="shared" si="21"/>
         <v>828080738.08695102</v>
       </c>
-      <c r="P25">
-        <f t="shared" si="7"/>
-        <v>764398126.74698579</v>
-      </c>
-      <c r="Q25">
-        <f t="shared" si="8"/>
-        <v>700667784.86596918</v>
-      </c>
-      <c r="R25">
-        <f t="shared" si="9"/>
-        <v>636933096.29997551</v>
-      </c>
-      <c r="S25">
-        <f t="shared" si="10"/>
-        <v>578926510.75967848</v>
-      </c>
-      <c r="T25">
-        <f t="shared" si="11"/>
-        <v>523785332.64934218</v>
-      </c>
-      <c r="U25">
-        <f t="shared" si="12"/>
-        <v>503057896.99260819</v>
-      </c>
-      <c r="V25">
-        <f t="shared" si="13"/>
-        <v>483699105.21929175</v>
-      </c>
-      <c r="W25">
-        <f t="shared" si="14"/>
-        <v>467076153.12607259</v>
-      </c>
-      <c r="X25">
-        <f t="shared" si="15"/>
-        <v>450420708.57147855</v>
-      </c>
-      <c r="Y25">
-        <f t="shared" si="16"/>
-        <v>433105801.01712501</v>
-      </c>
-    </row>
-    <row r="26" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AA25">
+        <f t="shared" si="19"/>
+        <v>606803877.9871794</v>
+      </c>
+      <c r="AB25">
+        <f t="shared" si="19"/>
+        <v>441539556.55799913</v>
+      </c>
+      <c r="AC25">
+        <f t="shared" si="19"/>
+        <v>318625123.55590492</v>
+      </c>
+      <c r="AD25">
+        <f t="shared" si="19"/>
+        <v>229899682.66758481</v>
+      </c>
+      <c r="AE25">
+        <f t="shared" si="19"/>
+        <v>165118981.30050445</v>
+      </c>
+      <c r="AF25">
+        <f t="shared" si="19"/>
+        <v>125889750.31158298</v>
+      </c>
+      <c r="AG25">
+        <f t="shared" si="19"/>
+        <v>96089607.359023303</v>
+      </c>
+      <c r="AH25">
+        <f t="shared" si="19"/>
+        <v>73657599.819392487</v>
+      </c>
+      <c r="AI25">
+        <f t="shared" si="19"/>
+        <v>56386735.420951024</v>
+      </c>
+      <c r="AJ25">
+        <f t="shared" si="19"/>
+        <v>43040899.216926873</v>
+      </c>
+      <c r="AK25">
+        <f t="shared" si="22"/>
+        <v>2985132552.2840009</v>
+      </c>
+    </row>
+    <row r="26" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>7.78</v>
       </c>
@@ -1574,55 +1831,103 @@
         <v>3.5858630140793339</v>
       </c>
       <c r="N26">
+        <f t="shared" si="20"/>
+        <v>121425742.574257</v>
+      </c>
+      <c r="O26">
+        <f t="shared" si="8"/>
+        <v>830857026.96013975</v>
+      </c>
+      <c r="P26">
+        <f t="shared" si="9"/>
+        <v>767164143.21771395</v>
+      </c>
+      <c r="Q26">
+        <f t="shared" si="10"/>
+        <v>703518378.6817627</v>
+      </c>
+      <c r="R26">
+        <f t="shared" si="11"/>
+        <v>639895143.84151781</v>
+      </c>
+      <c r="S26">
+        <f t="shared" si="12"/>
+        <v>582108261.91489327</v>
+      </c>
+      <c r="T26">
+        <f t="shared" si="13"/>
+        <v>527011772.41077155</v>
+      </c>
+      <c r="U26">
+        <f t="shared" si="14"/>
+        <v>506051226.38908529</v>
+      </c>
+      <c r="V26">
+        <f t="shared" si="15"/>
+        <v>486458036.61255318</v>
+      </c>
+      <c r="W26">
+        <f t="shared" si="16"/>
+        <v>469599559.32632488</v>
+      </c>
+      <c r="X26">
         <f t="shared" si="17"/>
-        <v>121425742.574257</v>
-      </c>
-      <c r="O26">
-        <f t="shared" si="6"/>
+        <v>452741082.04009587</v>
+      </c>
+      <c r="Y26">
+        <f t="shared" si="18"/>
+        <v>435416079.25414652</v>
+      </c>
+      <c r="Z26">
+        <f t="shared" si="21"/>
         <v>830857026.96013975</v>
       </c>
-      <c r="P26">
-        <f t="shared" si="7"/>
-        <v>767164143.21771395</v>
-      </c>
-      <c r="Q26">
-        <f t="shared" si="8"/>
-        <v>703518378.6817627</v>
-      </c>
-      <c r="R26">
-        <f t="shared" si="9"/>
-        <v>639895143.84151781</v>
-      </c>
-      <c r="S26">
-        <f t="shared" si="10"/>
-        <v>582108261.91489327</v>
-      </c>
-      <c r="T26">
-        <f t="shared" si="11"/>
-        <v>527011772.41077155</v>
-      </c>
-      <c r="U26">
-        <f t="shared" si="12"/>
-        <v>506051226.38908529</v>
-      </c>
-      <c r="V26">
-        <f t="shared" si="13"/>
-        <v>486458036.61255318</v>
-      </c>
-      <c r="W26">
-        <f t="shared" si="14"/>
-        <v>469599559.32632488</v>
-      </c>
-      <c r="X26">
-        <f t="shared" si="15"/>
-        <v>452741082.04009587</v>
-      </c>
-      <c r="Y26">
-        <f t="shared" si="16"/>
-        <v>435416079.25414652</v>
-      </c>
-    </row>
-    <row r="27" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AA26">
+        <f t="shared" si="19"/>
+        <v>608999631.04083622</v>
+      </c>
+      <c r="AB26">
+        <f t="shared" si="19"/>
+        <v>443335914.19929302</v>
+      </c>
+      <c r="AC26">
+        <f t="shared" si="19"/>
+        <v>320106884.77915573</v>
+      </c>
+      <c r="AD26">
+        <f t="shared" si="19"/>
+        <v>231163199.8279084</v>
+      </c>
+      <c r="AE26">
+        <f t="shared" si="19"/>
+        <v>166136089.67186719</v>
+      </c>
+      <c r="AF26">
+        <f t="shared" si="19"/>
+        <v>126638828.08687603</v>
+      </c>
+      <c r="AG26">
+        <f t="shared" si="19"/>
+        <v>96637684.937518686</v>
+      </c>
+      <c r="AH26">
+        <f t="shared" si="19"/>
+        <v>74055539.304925993</v>
+      </c>
+      <c r="AI26">
+        <f t="shared" si="19"/>
+        <v>56677215.592850044</v>
+      </c>
+      <c r="AJ26">
+        <f t="shared" si="19"/>
+        <v>43270488.505569927</v>
+      </c>
+      <c r="AK26">
+        <f t="shared" si="22"/>
+        <v>2997878502.9069414</v>
+      </c>
+    </row>
+    <row r="27" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>4.78</v>
       </c>
@@ -1674,55 +1979,103 @@
         <v>3.4977945773616281</v>
       </c>
       <c r="N27">
+        <f t="shared" si="20"/>
+        <v>121425742.574257</v>
+      </c>
+      <c r="O27">
+        <f t="shared" si="8"/>
+        <v>828089378.03943932</v>
+      </c>
+      <c r="P27">
+        <f t="shared" si="9"/>
+        <v>763206542.05292821</v>
+      </c>
+      <c r="Q27">
+        <f t="shared" si="10"/>
+        <v>698360728.3000747</v>
+      </c>
+      <c r="R27">
+        <f t="shared" si="11"/>
+        <v>633532616.45099008</v>
+      </c>
+      <c r="S27">
+        <f t="shared" si="12"/>
+        <v>574643735.00320876</v>
+      </c>
+      <c r="T27">
+        <f t="shared" si="13"/>
+        <v>518637561.61643451</v>
+      </c>
+      <c r="U27">
+        <f t="shared" si="14"/>
+        <v>497284870.24842274</v>
+      </c>
+      <c r="V27">
+        <f t="shared" si="15"/>
+        <v>477298571.23988152</v>
+      </c>
+      <c r="W27">
+        <f t="shared" si="16"/>
+        <v>459832645.92742592</v>
+      </c>
+      <c r="X27">
         <f t="shared" si="17"/>
-        <v>121425742.574257</v>
-      </c>
-      <c r="O27">
-        <f t="shared" si="6"/>
+        <v>442366720.61496949</v>
+      </c>
+      <c r="Y27">
+        <f t="shared" si="18"/>
+        <v>424722303.92834514</v>
+      </c>
+      <c r="Z27">
+        <f t="shared" si="21"/>
         <v>828089378.03943932</v>
       </c>
-      <c r="P27">
-        <f t="shared" si="7"/>
-        <v>763206542.05292821</v>
-      </c>
-      <c r="Q27">
-        <f t="shared" si="8"/>
-        <v>698360728.3000747</v>
-      </c>
-      <c r="R27">
-        <f t="shared" si="9"/>
-        <v>633532616.45099008</v>
-      </c>
-      <c r="S27">
-        <f t="shared" si="10"/>
-        <v>574643735.00320876</v>
-      </c>
-      <c r="T27">
-        <f t="shared" si="11"/>
-        <v>518637561.61643451</v>
-      </c>
-      <c r="U27">
-        <f t="shared" si="12"/>
-        <v>497284870.24842274</v>
-      </c>
-      <c r="V27">
-        <f t="shared" si="13"/>
-        <v>477298571.23988152</v>
-      </c>
-      <c r="W27">
-        <f t="shared" si="14"/>
-        <v>459832645.92742592</v>
-      </c>
-      <c r="X27">
-        <f t="shared" si="15"/>
-        <v>442366720.61496949</v>
-      </c>
-      <c r="Y27">
-        <f t="shared" si="16"/>
-        <v>424722303.92834514</v>
-      </c>
-    </row>
-    <row r="28" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AA27">
+        <f t="shared" si="19"/>
+        <v>605857959.63913035</v>
+      </c>
+      <c r="AB27">
+        <f t="shared" si="19"/>
+        <v>440085719.58267123</v>
+      </c>
+      <c r="AC27">
+        <f t="shared" si="19"/>
+        <v>316924037.02369857</v>
+      </c>
+      <c r="AD27">
+        <f t="shared" si="19"/>
+        <v>228198933.48949519</v>
+      </c>
+      <c r="AE27">
+        <f t="shared" si="19"/>
+        <v>163496189.18331662</v>
+      </c>
+      <c r="AF27">
+        <f t="shared" si="19"/>
+        <v>124445055.97378935</v>
+      </c>
+      <c r="AG27">
+        <f t="shared" si="19"/>
+        <v>94818104.496327728</v>
+      </c>
+      <c r="AH27">
+        <f t="shared" si="19"/>
+        <v>72515303.534395054</v>
+      </c>
+      <c r="AI27">
+        <f t="shared" si="19"/>
+        <v>55378482.293719128</v>
+      </c>
+      <c r="AJ27">
+        <f t="shared" si="19"/>
+        <v>42207769.638804905</v>
+      </c>
+      <c r="AK27">
+        <f t="shared" si="22"/>
+        <v>2972016932.8947883</v>
+      </c>
+    </row>
+    <row r="28" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>5.78</v>
       </c>
@@ -1774,55 +2127,103 @@
         <v>3.451277364160235</v>
       </c>
       <c r="N28">
+        <f t="shared" si="20"/>
+        <v>121425742.574257</v>
+      </c>
+      <c r="O28">
+        <f t="shared" si="8"/>
+        <v>822367025.32687736</v>
+      </c>
+      <c r="P28">
+        <f t="shared" si="9"/>
+        <v>757581582.7523098</v>
+      </c>
+      <c r="Q28">
+        <f t="shared" si="10"/>
+        <v>692715835.25685048</v>
+      </c>
+      <c r="R28">
+        <f t="shared" si="11"/>
+        <v>627698689.18290496</v>
+      </c>
+      <c r="S28">
+        <f t="shared" si="12"/>
+        <v>568520788.85347855</v>
+      </c>
+      <c r="T28">
+        <f t="shared" si="13"/>
+        <v>512269629.96115696</v>
+      </c>
+      <c r="U28">
+        <f t="shared" si="14"/>
+        <v>491108106.36455667</v>
+      </c>
+      <c r="V28">
+        <f t="shared" si="15"/>
+        <v>471345560.13663477</v>
+      </c>
+      <c r="W28">
+        <f t="shared" si="16"/>
+        <v>454050822.31285369</v>
+      </c>
+      <c r="X28">
         <f t="shared" si="17"/>
-        <v>121425742.574257</v>
-      </c>
-      <c r="O28">
-        <f t="shared" si="6"/>
+        <v>436706386.60564286</v>
+      </c>
+      <c r="Y28">
+        <f t="shared" si="18"/>
+        <v>419073916.77288091</v>
+      </c>
+      <c r="Z28">
+        <f t="shared" si="21"/>
         <v>822367025.32687736</v>
       </c>
-      <c r="P28">
-        <f t="shared" si="7"/>
-        <v>757581582.7523098</v>
-      </c>
-      <c r="Q28">
-        <f t="shared" si="8"/>
-        <v>692715835.25685048</v>
-      </c>
-      <c r="R28">
-        <f t="shared" si="9"/>
-        <v>627698689.18290496</v>
-      </c>
-      <c r="S28">
-        <f t="shared" si="10"/>
-        <v>568520788.85347855</v>
-      </c>
-      <c r="T28">
-        <f t="shared" si="11"/>
-        <v>512269629.96115696</v>
-      </c>
-      <c r="U28">
-        <f t="shared" si="12"/>
-        <v>491108106.36455667</v>
-      </c>
-      <c r="V28">
-        <f t="shared" si="13"/>
-        <v>471345560.13663477</v>
-      </c>
-      <c r="W28">
-        <f t="shared" si="14"/>
-        <v>454050822.31285369</v>
-      </c>
-      <c r="X28">
-        <f t="shared" si="15"/>
-        <v>436706386.60564286</v>
-      </c>
-      <c r="Y28">
-        <f t="shared" si="16"/>
-        <v>419073916.77288091</v>
-      </c>
-    </row>
-    <row r="29" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AA28">
+        <f t="shared" si="19"/>
+        <v>601392685.59187317</v>
+      </c>
+      <c r="AB28">
+        <f t="shared" si="19"/>
+        <v>436528479.43982756</v>
+      </c>
+      <c r="AC28">
+        <f t="shared" si="19"/>
+        <v>314005620.93351895</v>
+      </c>
+      <c r="AD28">
+        <f t="shared" si="19"/>
+        <v>225767427.32998884</v>
+      </c>
+      <c r="AE28">
+        <f t="shared" si="19"/>
+        <v>161488751.55120066</v>
+      </c>
+      <c r="AF28">
+        <f t="shared" si="19"/>
+        <v>122899326.80877252</v>
+      </c>
+      <c r="AG28">
+        <f t="shared" si="19"/>
+        <v>93635504.625162885</v>
+      </c>
+      <c r="AH28">
+        <f t="shared" si="19"/>
+        <v>71603513.781957135</v>
+      </c>
+      <c r="AI28">
+        <f t="shared" si="19"/>
+        <v>54669883.088344306</v>
+      </c>
+      <c r="AJ28">
+        <f t="shared" si="19"/>
+        <v>41646447.99008631</v>
+      </c>
+      <c r="AK28">
+        <f t="shared" si="22"/>
+        <v>2946004666.4676099</v>
+      </c>
+    </row>
+    <row r="29" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>6.78</v>
       </c>
@@ -1874,55 +2275,103 @@
         <v>3.4366236786565341</v>
       </c>
       <c r="N29">
+        <f t="shared" si="20"/>
+        <v>121425742.574257</v>
+      </c>
+      <c r="O29">
+        <f t="shared" si="8"/>
+        <v>820441633.68129706</v>
+      </c>
+      <c r="P29">
+        <f t="shared" si="9"/>
+        <v>755656191.10672915</v>
+      </c>
+      <c r="Q29">
+        <f t="shared" si="10"/>
+        <v>690870748.53215873</v>
+      </c>
+      <c r="R29">
+        <f t="shared" si="11"/>
+        <v>626085305.95758581</v>
+      </c>
+      <c r="S29">
+        <f t="shared" si="12"/>
+        <v>566896705.79294455</v>
+      </c>
+      <c r="T29">
+        <f t="shared" si="13"/>
+        <v>510565877.54054552</v>
+      </c>
+      <c r="U29">
+        <f t="shared" si="14"/>
+        <v>489334675.77777916</v>
+      </c>
+      <c r="V29">
+        <f t="shared" si="15"/>
+        <v>469469866.37448347</v>
+      </c>
+      <c r="W29">
+        <f t="shared" si="16"/>
+        <v>452125430.66727334</v>
+      </c>
+      <c r="X29">
         <f t="shared" si="17"/>
-        <v>121425742.574257</v>
-      </c>
-      <c r="O29">
-        <f t="shared" si="6"/>
+        <v>434780994.96006233</v>
+      </c>
+      <c r="Y29">
+        <f t="shared" si="18"/>
+        <v>417294582.12914443</v>
+      </c>
+      <c r="Z29">
+        <f t="shared" si="21"/>
         <v>820441633.68129706</v>
       </c>
-      <c r="P29">
-        <f t="shared" si="7"/>
-        <v>755656191.10672915</v>
-      </c>
-      <c r="Q29">
-        <f t="shared" si="8"/>
-        <v>690870748.53215873</v>
-      </c>
-      <c r="R29">
-        <f t="shared" si="9"/>
-        <v>626085305.95758581</v>
-      </c>
-      <c r="S29">
-        <f t="shared" si="10"/>
-        <v>566896705.79294455</v>
-      </c>
-      <c r="T29">
-        <f t="shared" si="11"/>
-        <v>510565877.54054552</v>
-      </c>
-      <c r="U29">
-        <f t="shared" si="12"/>
-        <v>489334675.77777916</v>
-      </c>
-      <c r="V29">
-        <f t="shared" si="13"/>
-        <v>469469866.37448347</v>
-      </c>
-      <c r="W29">
-        <f t="shared" si="14"/>
-        <v>452125430.66727334</v>
-      </c>
-      <c r="X29">
-        <f t="shared" si="15"/>
-        <v>434780994.96006233</v>
-      </c>
-      <c r="Y29">
-        <f t="shared" si="16"/>
-        <v>417294582.12914443</v>
-      </c>
-    </row>
-    <row r="30" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AA29">
+        <f t="shared" si="19"/>
+        <v>599864247.62702036</v>
+      </c>
+      <c r="AB29">
+        <f t="shared" si="19"/>
+        <v>435365761.82696158</v>
+      </c>
+      <c r="AC29">
+        <f t="shared" si="19"/>
+        <v>313198527.64146584</v>
+      </c>
+      <c r="AD29">
+        <f t="shared" si="19"/>
+        <v>225122481.60146689</v>
+      </c>
+      <c r="AE29">
+        <f t="shared" si="19"/>
+        <v>160951657.73328733</v>
+      </c>
+      <c r="AF29">
+        <f t="shared" si="19"/>
+        <v>122455527.52622667</v>
+      </c>
+      <c r="AG29">
+        <f t="shared" si="19"/>
+        <v>93262887.278580904</v>
+      </c>
+      <c r="AH29">
+        <f t="shared" si="19"/>
+        <v>71299880.795394704</v>
+      </c>
+      <c r="AI29">
+        <f t="shared" si="19"/>
+        <v>54428849.434173785</v>
+      </c>
+      <c r="AJ29">
+        <f t="shared" si="19"/>
+        <v>41469622.459478326</v>
+      </c>
+      <c r="AK29">
+        <f t="shared" si="22"/>
+        <v>2937861077.6053534</v>
+      </c>
+    </row>
+    <row r="30" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>7.78</v>
       </c>
@@ -1974,55 +2423,103 @@
         <v>3.4579495712665489</v>
       </c>
       <c r="N30">
+        <f t="shared" si="20"/>
+        <v>121425742.574257</v>
+      </c>
+      <c r="O30">
+        <f t="shared" si="8"/>
+        <v>822825168.43296134</v>
+      </c>
+      <c r="P30">
+        <f t="shared" si="9"/>
+        <v>757933478.49991</v>
+      </c>
+      <c r="Q30">
+        <f t="shared" si="10"/>
+        <v>693082176.45812166</v>
+      </c>
+      <c r="R30">
+        <f t="shared" si="11"/>
+        <v>628250185.58408129</v>
+      </c>
+      <c r="S30">
+        <f t="shared" si="12"/>
+        <v>569357838.37290132</v>
+      </c>
+      <c r="T30">
+        <f t="shared" si="13"/>
+        <v>513301446.88861936</v>
+      </c>
+      <c r="U30">
+        <f t="shared" si="14"/>
+        <v>491948755.52060759</v>
+      </c>
+      <c r="V30">
+        <f t="shared" si="15"/>
+        <v>471988281.42038888</v>
+      </c>
+      <c r="W30">
+        <f t="shared" si="16"/>
+        <v>454812241.85575223</v>
+      </c>
+      <c r="X30">
         <f t="shared" si="17"/>
-        <v>121425742.574257</v>
-      </c>
-      <c r="O30">
-        <f t="shared" si="6"/>
+        <v>437373860.63481444</v>
+      </c>
+      <c r="Y30">
+        <f t="shared" si="18"/>
+        <v>419884094.47537434</v>
+      </c>
+      <c r="Z30">
+        <f t="shared" si="21"/>
         <v>822825168.43296134</v>
       </c>
-      <c r="P30">
-        <f t="shared" si="7"/>
-        <v>757933478.49991</v>
-      </c>
-      <c r="Q30">
-        <f t="shared" si="8"/>
-        <v>693082176.45812166</v>
-      </c>
-      <c r="R30">
-        <f t="shared" si="9"/>
-        <v>628250185.58408129</v>
-      </c>
-      <c r="S30">
-        <f t="shared" si="10"/>
-        <v>569357838.37290132</v>
-      </c>
-      <c r="T30">
-        <f t="shared" si="11"/>
-        <v>513301446.88861936</v>
-      </c>
-      <c r="U30">
-        <f t="shared" si="12"/>
-        <v>491948755.52060759</v>
-      </c>
-      <c r="V30">
-        <f t="shared" si="13"/>
-        <v>471988281.42038888</v>
-      </c>
-      <c r="W30">
-        <f t="shared" si="14"/>
-        <v>454812241.85575223</v>
-      </c>
-      <c r="X30">
-        <f t="shared" si="15"/>
-        <v>437373860.63481444</v>
-      </c>
-      <c r="Y30">
-        <f t="shared" si="16"/>
-        <v>419884094.47537434</v>
-      </c>
-    </row>
-    <row r="31" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AA30">
+        <f t="shared" si="19"/>
+        <v>601672031.7817961</v>
+      </c>
+      <c r="AB30">
+        <f t="shared" si="19"/>
+        <v>436759336.53794456</v>
+      </c>
+      <c r="AC30">
+        <f t="shared" si="19"/>
+        <v>314281506.43858415</v>
+      </c>
+      <c r="AD30">
+        <f t="shared" si="19"/>
+        <v>226099831.21081963</v>
+      </c>
+      <c r="AE30">
+        <f t="shared" si="19"/>
+        <v>161814023.27862656</v>
+      </c>
+      <c r="AF30">
+        <f t="shared" si="19"/>
+        <v>123109698.44390152</v>
+      </c>
+      <c r="AG30">
+        <f t="shared" si="19"/>
+        <v>93763184.902283132</v>
+      </c>
+      <c r="AH30">
+        <f t="shared" si="19"/>
+        <v>71723589.13928403</v>
+      </c>
+      <c r="AI30">
+        <f t="shared" si="19"/>
+        <v>54753442.038381532</v>
+      </c>
+      <c r="AJ30">
+        <f t="shared" si="19"/>
+        <v>41726961.289051436</v>
+      </c>
+      <c r="AK30">
+        <f t="shared" si="22"/>
+        <v>2948528773.4936342</v>
+      </c>
+    </row>
+    <row r="31" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>4.78</v>
       </c>
@@ -2074,55 +2571,103 @@
         <v>3.3819286004576181</v>
       </c>
       <c r="N31">
+        <f t="shared" si="20"/>
+        <v>121425742.574257</v>
+      </c>
+      <c r="O31">
+        <f t="shared" si="8"/>
+        <v>817588180.84226775</v>
+      </c>
+      <c r="P31">
+        <f t="shared" si="9"/>
+        <v>752161219.37068295</v>
+      </c>
+      <c r="Q31">
+        <f t="shared" si="10"/>
+        <v>686804936.70881093</v>
+      </c>
+      <c r="R31">
+        <f t="shared" si="11"/>
+        <v>621482448.59049988</v>
+      </c>
+      <c r="S31">
+        <f t="shared" si="12"/>
+        <v>562103323.48906171</v>
+      </c>
+      <c r="T31">
+        <f t="shared" si="13"/>
+        <v>505139383.10753971</v>
+      </c>
+      <c r="U31">
+        <f t="shared" si="14"/>
+        <v>483665202.13428241</v>
+      </c>
+      <c r="V31">
+        <f t="shared" si="15"/>
+        <v>463583238.42881823</v>
+      </c>
+      <c r="W31">
+        <f t="shared" si="16"/>
+        <v>446174108.23575485</v>
+      </c>
+      <c r="X31">
         <f t="shared" si="17"/>
-        <v>121425742.574257</v>
-      </c>
-      <c r="O31">
-        <f t="shared" si="6"/>
+        <v>428573280.7671262</v>
+      </c>
+      <c r="Y31">
+        <f t="shared" si="18"/>
+        <v>410653191.64368397</v>
+      </c>
+      <c r="Z31">
+        <f t="shared" si="21"/>
         <v>817588180.84226775</v>
       </c>
-      <c r="P31">
-        <f t="shared" si="7"/>
-        <v>752161219.37068295</v>
-      </c>
-      <c r="Q31">
-        <f t="shared" si="8"/>
-        <v>686804936.70881093</v>
-      </c>
-      <c r="R31">
-        <f t="shared" si="9"/>
-        <v>621482448.59049988</v>
-      </c>
-      <c r="S31">
-        <f t="shared" si="10"/>
-        <v>562103323.48906171</v>
-      </c>
-      <c r="T31">
-        <f t="shared" si="11"/>
-        <v>505139383.10753971</v>
-      </c>
-      <c r="U31">
-        <f t="shared" si="12"/>
-        <v>483665202.13428241</v>
-      </c>
-      <c r="V31">
-        <f t="shared" si="13"/>
-        <v>463583238.42881823</v>
-      </c>
-      <c r="W31">
-        <f t="shared" si="14"/>
-        <v>446174108.23575485</v>
-      </c>
-      <c r="X31">
-        <f t="shared" si="15"/>
-        <v>428573280.7671262</v>
-      </c>
-      <c r="Y31">
-        <f t="shared" si="16"/>
-        <v>410653191.64368397</v>
-      </c>
-    </row>
-    <row r="32" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AA31">
+        <f t="shared" si="19"/>
+        <v>597089826.38149261</v>
+      </c>
+      <c r="AB31">
+        <f t="shared" si="19"/>
+        <v>432803610.70726562</v>
+      </c>
+      <c r="AC31">
+        <f t="shared" si="19"/>
+        <v>310895952.99772769</v>
+      </c>
+      <c r="AD31">
+        <f t="shared" si="19"/>
+        <v>223218963.5381448</v>
+      </c>
+      <c r="AE31">
+        <f t="shared" si="19"/>
+        <v>159241000.37623867</v>
+      </c>
+      <c r="AF31">
+        <f t="shared" si="19"/>
+        <v>121036747.25134234</v>
+      </c>
+      <c r="AG31">
+        <f t="shared" si="19"/>
+        <v>92093474.803213224</v>
+      </c>
+      <c r="AH31">
+        <f t="shared" si="19"/>
+        <v>70361361.19185023</v>
+      </c>
+      <c r="AI31">
+        <f t="shared" si="19"/>
+        <v>53651725.445189998</v>
+      </c>
+      <c r="AJ31">
+        <f t="shared" si="19"/>
+        <v>40809618.788611636</v>
+      </c>
+      <c r="AK31">
+        <f t="shared" si="22"/>
+        <v>2918790462.3233442</v>
+      </c>
+    </row>
+    <row r="32" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>5.78</v>
       </c>
@@ -2174,55 +2719,103 @@
         <v>3.3105626069236971</v>
       </c>
       <c r="N32">
+        <f t="shared" si="20"/>
+        <v>121425742.574257</v>
+      </c>
+      <c r="O32">
+        <f t="shared" si="8"/>
+        <v>806538223.04847205</v>
+      </c>
+      <c r="P32">
+        <f t="shared" si="9"/>
+        <v>741487162.07769501</v>
+      </c>
+      <c r="Q32">
+        <f t="shared" si="10"/>
+        <v>676537070.83507991</v>
+      </c>
+      <c r="R32">
+        <f t="shared" si="11"/>
+        <v>611635257.51183891</v>
+      </c>
+      <c r="S32">
+        <f t="shared" si="12"/>
+        <v>552680526.55948353</v>
+      </c>
+      <c r="T32">
+        <f t="shared" si="13"/>
+        <v>495720209.32006234</v>
+      </c>
+      <c r="U32">
+        <f t="shared" si="14"/>
+        <v>474367517.95205069</v>
+      </c>
+      <c r="V32">
+        <f t="shared" si="15"/>
+        <v>454407043.85183203</v>
+      </c>
+      <c r="W32">
+        <f t="shared" si="16"/>
+        <v>437231004.28719538</v>
+      </c>
+      <c r="X32">
         <f t="shared" si="17"/>
-        <v>121425742.574257</v>
-      </c>
-      <c r="O32">
-        <f t="shared" si="6"/>
+        <v>419792623.06625772</v>
+      </c>
+      <c r="Y32">
+        <f t="shared" si="18"/>
+        <v>401987522.884278</v>
+      </c>
+      <c r="Z32">
+        <f t="shared" si="21"/>
         <v>806538223.04847205</v>
       </c>
-      <c r="P32">
-        <f t="shared" si="7"/>
-        <v>741487162.07769501</v>
-      </c>
-      <c r="Q32">
-        <f t="shared" si="8"/>
-        <v>676537070.83507991</v>
-      </c>
-      <c r="R32">
-        <f t="shared" si="9"/>
-        <v>611635257.51183891</v>
-      </c>
-      <c r="S32">
-        <f t="shared" si="10"/>
-        <v>552680526.55948353</v>
-      </c>
-      <c r="T32">
-        <f t="shared" si="11"/>
-        <v>495720209.32006234</v>
-      </c>
-      <c r="U32">
-        <f t="shared" si="12"/>
-        <v>474367517.95205069</v>
-      </c>
-      <c r="V32">
-        <f t="shared" si="13"/>
-        <v>454407043.85183203</v>
-      </c>
-      <c r="W32">
-        <f t="shared" si="14"/>
-        <v>437231004.28719538</v>
-      </c>
-      <c r="X32">
-        <f t="shared" si="15"/>
-        <v>419792623.06625772</v>
-      </c>
-      <c r="Y32">
-        <f t="shared" si="16"/>
-        <v>401987522.884278</v>
-      </c>
-    </row>
-    <row r="33" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AA32">
+        <f t="shared" si="19"/>
+        <v>588616415.55982232</v>
+      </c>
+      <c r="AB32">
+        <f t="shared" si="19"/>
+        <v>426333113.50073075</v>
+      </c>
+      <c r="AC32">
+        <f t="shared" si="19"/>
+        <v>305969905.8314814</v>
+      </c>
+      <c r="AD32">
+        <f t="shared" si="19"/>
+        <v>219477041.23248211</v>
+      </c>
+      <c r="AE32">
+        <f t="shared" si="19"/>
+        <v>156271683.97210428</v>
+      </c>
+      <c r="AF32">
+        <f t="shared" si="19"/>
+        <v>118710010.8117108</v>
+      </c>
+      <c r="AG32">
+        <f t="shared" si="19"/>
+        <v>90270571.009432465</v>
+      </c>
+      <c r="AH32">
+        <f t="shared" si="19"/>
+        <v>68951039.625704214</v>
+      </c>
+      <c r="AI32">
+        <f t="shared" si="19"/>
+        <v>52552502.844677091</v>
+      </c>
+      <c r="AJ32">
+        <f t="shared" si="19"/>
+        <v>39948447.74254173</v>
+      </c>
+      <c r="AK32">
+        <f t="shared" si="22"/>
+        <v>2873638955.1791592</v>
+      </c>
+    </row>
+    <row r="33" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>6.78</v>
       </c>
@@ -2274,55 +2867,103 @@
         <v>3.2766873654665272</v>
       </c>
       <c r="N33">
+        <f t="shared" si="20"/>
+        <v>121425742.574257</v>
+      </c>
+      <c r="O33">
+        <f t="shared" si="8"/>
+        <v>801063192.91258776</v>
+      </c>
+      <c r="P33">
+        <f t="shared" si="9"/>
+        <v>736215772.71223795</v>
+      </c>
+      <c r="Q33">
+        <f t="shared" si="10"/>
+        <v>671391912.11512363</v>
+      </c>
+      <c r="R33">
+        <f t="shared" si="11"/>
+        <v>606579316.3658613</v>
+      </c>
+      <c r="S33">
+        <f t="shared" si="12"/>
+        <v>547704297.97167444</v>
+      </c>
+      <c r="T33">
+        <f t="shared" si="13"/>
+        <v>491535463.9174642</v>
+      </c>
+      <c r="U33">
+        <f t="shared" si="14"/>
+        <v>470259852.34977257</v>
+      </c>
+      <c r="V33">
+        <f t="shared" si="15"/>
+        <v>450382252.42206168</v>
+      </c>
+      <c r="W33">
+        <f t="shared" si="16"/>
+        <v>433094081.28592265</v>
+      </c>
+      <c r="X33">
         <f t="shared" si="17"/>
-        <v>121425742.574257</v>
-      </c>
-      <c r="O33">
-        <f t="shared" si="6"/>
+        <v>415628155.9734661</v>
+      </c>
+      <c r="Y33">
+        <f t="shared" si="18"/>
+        <v>397874196.53545892</v>
+      </c>
+      <c r="Z33">
+        <f t="shared" si="21"/>
         <v>801063192.91258776</v>
       </c>
-      <c r="P33">
-        <f t="shared" si="7"/>
-        <v>736215772.71223795</v>
-      </c>
-      <c r="Q33">
-        <f t="shared" si="8"/>
-        <v>671391912.11512363</v>
-      </c>
-      <c r="R33">
-        <f t="shared" si="9"/>
-        <v>606579316.3658613</v>
-      </c>
-      <c r="S33">
-        <f t="shared" si="10"/>
-        <v>547704297.97167444</v>
-      </c>
-      <c r="T33">
-        <f t="shared" si="11"/>
-        <v>491535463.9174642</v>
-      </c>
-      <c r="U33">
-        <f t="shared" si="12"/>
-        <v>470259852.34977257</v>
-      </c>
-      <c r="V33">
-        <f t="shared" si="13"/>
-        <v>450382252.42206168</v>
-      </c>
-      <c r="W33">
-        <f t="shared" si="14"/>
-        <v>433094081.28592265</v>
-      </c>
-      <c r="X33">
-        <f t="shared" si="15"/>
-        <v>415628155.9734661</v>
-      </c>
-      <c r="Y33">
-        <f t="shared" si="16"/>
-        <v>397874196.53545892</v>
-      </c>
-    </row>
-    <row r="34" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AA33">
+        <f t="shared" si="19"/>
+        <v>584431816.72655165</v>
+      </c>
+      <c r="AB33">
+        <f t="shared" si="19"/>
+        <v>423090790.74992156</v>
+      </c>
+      <c r="AC33">
+        <f t="shared" si="19"/>
+        <v>303440676.49532866</v>
+      </c>
+      <c r="AD33">
+        <f t="shared" si="19"/>
+        <v>217500912.3940956</v>
+      </c>
+      <c r="AE33">
+        <f t="shared" si="19"/>
+        <v>154952477.6965411</v>
+      </c>
+      <c r="AF33">
+        <f t="shared" si="19"/>
+        <v>117682071.48280714</v>
+      </c>
+      <c r="AG33">
+        <f t="shared" si="19"/>
+        <v>89471023.059032068</v>
+      </c>
+      <c r="AH33">
+        <f t="shared" si="19"/>
+        <v>68298649.609917775</v>
+      </c>
+      <c r="AI33">
+        <f t="shared" si="19"/>
+        <v>52031166.459244817</v>
+      </c>
+      <c r="AJ33">
+        <f t="shared" si="19"/>
+        <v>39539676.342089273</v>
+      </c>
+      <c r="AK33">
+        <f t="shared" si="22"/>
+        <v>2851502453.9281173</v>
+      </c>
+    </row>
+    <row r="34" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>7.78</v>
       </c>
@@ -2374,55 +3015,103 @@
         <v>3.3139981588637242</v>
       </c>
       <c r="N34">
+        <f t="shared" si="20"/>
+        <v>121425742.574257</v>
+      </c>
+      <c r="O34">
+        <f t="shared" si="8"/>
+        <v>811108840.20280945</v>
+      </c>
+      <c r="P34">
+        <f t="shared" si="9"/>
+        <v>745350247.96311879</v>
+      </c>
+      <c r="Q34">
+        <f t="shared" si="10"/>
+        <v>679615215.32666361</v>
+      </c>
+      <c r="R34">
+        <f t="shared" si="11"/>
+        <v>613891447.53806043</v>
+      </c>
+      <c r="S34">
+        <f t="shared" si="12"/>
+        <v>554105257.10453272</v>
+      </c>
+      <c r="T34">
+        <f t="shared" si="13"/>
+        <v>497290228.2034902</v>
+      </c>
+      <c r="U34">
+        <f t="shared" si="14"/>
+        <v>475793113.48994559</v>
+      </c>
+      <c r="V34">
+        <f t="shared" si="15"/>
+        <v>455589660.17923594</v>
+      </c>
+      <c r="W34">
+        <f t="shared" si="16"/>
+        <v>437895752.67455888</v>
+      </c>
+      <c r="X34">
         <f t="shared" si="17"/>
-        <v>121425742.574257</v>
-      </c>
-      <c r="O34">
-        <f t="shared" si="6"/>
+        <v>420184165.64142627</v>
+      </c>
+      <c r="Y34">
+        <f t="shared" si="18"/>
+        <v>402404687.32974821</v>
+      </c>
+      <c r="Z34">
+        <f t="shared" si="21"/>
         <v>811108840.20280945</v>
       </c>
-      <c r="P34">
-        <f t="shared" si="7"/>
-        <v>745350247.96311879</v>
-      </c>
-      <c r="Q34">
-        <f t="shared" si="8"/>
-        <v>679615215.32666361</v>
-      </c>
-      <c r="R34">
-        <f t="shared" si="9"/>
-        <v>613891447.53806043</v>
-      </c>
-      <c r="S34">
-        <f t="shared" si="10"/>
-        <v>554105257.10453272</v>
-      </c>
-      <c r="T34">
-        <f t="shared" si="11"/>
-        <v>497290228.2034902</v>
-      </c>
-      <c r="U34">
-        <f t="shared" si="12"/>
-        <v>475793113.48994559</v>
-      </c>
-      <c r="V34">
-        <f t="shared" si="13"/>
-        <v>455589660.17923594</v>
-      </c>
-      <c r="W34">
-        <f t="shared" si="14"/>
-        <v>437895752.67455888</v>
-      </c>
-      <c r="X34">
-        <f t="shared" si="15"/>
-        <v>420184165.64142627</v>
-      </c>
-      <c r="Y34">
-        <f t="shared" si="16"/>
-        <v>402404687.32974821</v>
-      </c>
-    </row>
-    <row r="35" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AA34">
+        <f t="shared" si="19"/>
+        <v>591683057.68550169</v>
+      </c>
+      <c r="AB34">
+        <f t="shared" si="19"/>
+        <v>428272866.66648436</v>
+      </c>
+      <c r="AC34">
+        <f t="shared" si="19"/>
+        <v>307098562.56175101</v>
+      </c>
+      <c r="AD34">
+        <f t="shared" si="19"/>
+        <v>220042821.33428434</v>
+      </c>
+      <c r="AE34">
+        <f t="shared" si="19"/>
+        <v>156766619.40174472</v>
+      </c>
+      <c r="AF34">
+        <f t="shared" si="19"/>
+        <v>119066764.71098123</v>
+      </c>
+      <c r="AG34">
+        <f t="shared" si="19"/>
+        <v>90505504.540072545</v>
+      </c>
+      <c r="AH34">
+        <f t="shared" si="19"/>
+        <v>69055870.005866632</v>
+      </c>
+      <c r="AI34">
+        <f t="shared" si="19"/>
+        <v>52601518.813907474</v>
+      </c>
+      <c r="AJ34">
+        <f t="shared" si="19"/>
+        <v>39989904.432367176</v>
+      </c>
+      <c r="AK34">
+        <f t="shared" si="22"/>
+        <v>2886192330.3557711</v>
+      </c>
+    </row>
+    <row r="35" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>4.78</v>
       </c>
@@ -2474,55 +3163,103 @@
         <v>3.3803821046278602</v>
       </c>
       <c r="N35">
+        <f t="shared" si="20"/>
+        <v>121425742.574257</v>
+      </c>
+      <c r="O35">
+        <f t="shared" si="8"/>
+        <v>829537594.861413</v>
+      </c>
+      <c r="P35">
+        <f t="shared" si="9"/>
+        <v>762367428.59824824</v>
+      </c>
+      <c r="Q35">
+        <f t="shared" si="10"/>
+        <v>695285843.94674957</v>
+      </c>
+      <c r="R35">
+        <f t="shared" si="11"/>
+        <v>628067373.20476329</v>
+      </c>
+      <c r="S35">
+        <f t="shared" si="12"/>
+        <v>566704197.51492417</v>
+      </c>
+      <c r="T35">
+        <f t="shared" si="13"/>
+        <v>508126689.39882129</v>
+      </c>
+      <c r="U35">
+        <f t="shared" si="14"/>
+        <v>485980375.69797629</v>
+      </c>
+      <c r="V35">
+        <f t="shared" si="15"/>
+        <v>465255968.93105328</v>
+      </c>
+      <c r="W35">
+        <f t="shared" si="16"/>
+        <v>447292333.38841146</v>
+      </c>
+      <c r="X35">
         <f t="shared" si="17"/>
-        <v>121425742.574257</v>
-      </c>
-      <c r="O35">
-        <f t="shared" si="6"/>
+        <v>429022887.37656492</v>
+      </c>
+      <c r="Y35">
+        <f t="shared" si="18"/>
+        <v>410465407.23916763</v>
+      </c>
+      <c r="Z35">
+        <f t="shared" si="21"/>
         <v>829537594.861413</v>
       </c>
-      <c r="P35">
-        <f t="shared" si="7"/>
-        <v>762367428.59824824</v>
-      </c>
-      <c r="Q35">
-        <f t="shared" si="8"/>
-        <v>695285843.94674957</v>
-      </c>
-      <c r="R35">
-        <f t="shared" si="9"/>
-        <v>628067373.20476329</v>
-      </c>
-      <c r="S35">
-        <f t="shared" si="10"/>
-        <v>566704197.51492417</v>
-      </c>
-      <c r="T35">
-        <f t="shared" si="11"/>
-        <v>508126689.39882129</v>
-      </c>
-      <c r="U35">
-        <f t="shared" si="12"/>
-        <v>485980375.69797629</v>
-      </c>
-      <c r="V35">
-        <f t="shared" si="13"/>
-        <v>465255968.93105328</v>
-      </c>
-      <c r="W35">
-        <f t="shared" si="14"/>
-        <v>447292333.38841146</v>
-      </c>
-      <c r="X35">
-        <f t="shared" si="15"/>
-        <v>429022887.37656492</v>
-      </c>
-      <c r="Y35">
-        <f t="shared" si="16"/>
-        <v>410465407.23916763</v>
-      </c>
-    </row>
-    <row r="36" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AA35">
+        <f t="shared" si="19"/>
+        <v>605191844.3249315</v>
+      </c>
+      <c r="AB35">
+        <f t="shared" si="19"/>
+        <v>438148020.85702759</v>
+      </c>
+      <c r="AC35">
+        <f t="shared" si="19"/>
+        <v>314190054.73465145</v>
+      </c>
+      <c r="AD35">
+        <f t="shared" si="19"/>
+        <v>225046033.91561174</v>
+      </c>
+      <c r="AE35">
+        <f t="shared" si="19"/>
+        <v>160182723.90475762</v>
+      </c>
+      <c r="AF35">
+        <f t="shared" si="19"/>
+        <v>121616117.18789198</v>
+      </c>
+      <c r="AG35">
+        <f t="shared" si="19"/>
+        <v>92425772.33166194</v>
+      </c>
+      <c r="AH35">
+        <f t="shared" si="19"/>
+        <v>70537704.557383016</v>
+      </c>
+      <c r="AI35">
+        <f t="shared" si="19"/>
+        <v>53708010.266130708</v>
+      </c>
+      <c r="AJ35">
+        <f t="shared" si="19"/>
+        <v>40790957.275396354</v>
+      </c>
+      <c r="AK35">
+        <f t="shared" si="22"/>
+        <v>2951374834.216857</v>
+      </c>
+    </row>
+    <row r="36" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>5.78</v>
       </c>
@@ -2574,55 +3311,103 @@
         <v>3.437192165847399</v>
       </c>
       <c r="N36">
+        <f t="shared" si="20"/>
+        <v>121425742.574257</v>
+      </c>
+      <c r="O36">
+        <f t="shared" si="8"/>
+        <v>883195164.41351032</v>
+      </c>
+      <c r="P36">
+        <f t="shared" si="9"/>
+        <v>809118451.0457263</v>
+      </c>
+      <c r="Q36">
+        <f t="shared" si="10"/>
+        <v>734818232.38593352</v>
+      </c>
+      <c r="R36">
+        <f t="shared" si="11"/>
+        <v>660536196.73687232</v>
+      </c>
+      <c r="S36">
+        <f t="shared" si="12"/>
+        <v>592751202.25913942</v>
+      </c>
+      <c r="T36">
+        <f t="shared" si="13"/>
+        <v>526994442.3440845</v>
+      </c>
+      <c r="U36">
+        <f t="shared" si="14"/>
+        <v>502448857.71229637</v>
+      </c>
+      <c r="V36">
+        <f t="shared" si="15"/>
+        <v>479268167.62724906</v>
+      </c>
+      <c r="W36">
+        <f t="shared" si="16"/>
+        <v>458992080.85281575</v>
+      </c>
+      <c r="X36">
         <f t="shared" si="17"/>
-        <v>121425742.574257</v>
-      </c>
-      <c r="O36">
-        <f t="shared" si="6"/>
+        <v>438344881.12789351</v>
+      </c>
+      <c r="Y36">
+        <f t="shared" si="18"/>
+        <v>417363611.10843915</v>
+      </c>
+      <c r="Z36">
+        <f t="shared" si="21"/>
         <v>883195164.41351032</v>
       </c>
-      <c r="P36">
-        <f t="shared" si="7"/>
-        <v>809118451.0457263</v>
-      </c>
-      <c r="Q36">
-        <f t="shared" si="8"/>
-        <v>734818232.38593352</v>
-      </c>
-      <c r="R36">
-        <f t="shared" si="9"/>
-        <v>660536196.73687232</v>
-      </c>
-      <c r="S36">
-        <f t="shared" si="10"/>
-        <v>592751202.25913942</v>
-      </c>
-      <c r="T36">
-        <f t="shared" si="11"/>
-        <v>526994442.3440845</v>
-      </c>
-      <c r="U36">
-        <f t="shared" si="12"/>
-        <v>502448857.71229637</v>
-      </c>
-      <c r="V36">
-        <f t="shared" si="13"/>
-        <v>479268167.62724906</v>
-      </c>
-      <c r="W36">
-        <f t="shared" si="14"/>
-        <v>458992080.85281575</v>
-      </c>
-      <c r="X36">
-        <f t="shared" si="15"/>
-        <v>438344881.12789351</v>
-      </c>
-      <c r="Y36">
-        <f t="shared" si="16"/>
-        <v>417363611.10843915</v>
-      </c>
-    </row>
-    <row r="37" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AA36">
+        <f t="shared" si="19"/>
+        <v>642304313.24439728</v>
+      </c>
+      <c r="AB36">
+        <f t="shared" si="19"/>
+        <v>463060131.32954609</v>
+      </c>
+      <c r="AC36">
+        <f t="shared" si="19"/>
+        <v>330432550.17056262</v>
+      </c>
+      <c r="AD36">
+        <f t="shared" si="19"/>
+        <v>235389657.87105703</v>
+      </c>
+      <c r="AE36">
+        <f t="shared" si="19"/>
+        <v>166130626.51209757</v>
+      </c>
+      <c r="AF36">
+        <f t="shared" si="19"/>
+        <v>125737338.82299139</v>
+      </c>
+      <c r="AG36">
+        <f t="shared" si="19"/>
+        <v>95209376.139123291</v>
+      </c>
+      <c r="AH36">
+        <f t="shared" si="19"/>
+        <v>72382746.979166508</v>
+      </c>
+      <c r="AI36">
+        <f t="shared" si="19"/>
+        <v>54875001.004453987</v>
+      </c>
+      <c r="AJ36">
+        <f t="shared" si="19"/>
+        <v>41476482.375309274</v>
+      </c>
+      <c r="AK36">
+        <f t="shared" si="22"/>
+        <v>3110193388.8622155</v>
+      </c>
+    </row>
+    <row r="37" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>6.78</v>
       </c>
@@ -2674,55 +3459,103 @@
         <v>3.5141187883880072</v>
       </c>
       <c r="N37">
+        <f t="shared" si="20"/>
+        <v>121425742.574257</v>
+      </c>
+      <c r="O37">
+        <f t="shared" si="8"/>
+        <v>950115830.56876659</v>
+      </c>
+      <c r="P37">
+        <f t="shared" si="9"/>
+        <v>867143192.1401149</v>
+      </c>
+      <c r="Q37">
+        <f t="shared" si="10"/>
+        <v>784775157.45027566</v>
+      </c>
+      <c r="R37">
+        <f t="shared" si="11"/>
+        <v>701734953.25233996</v>
+      </c>
+      <c r="S37">
+        <f t="shared" si="12"/>
+        <v>624918553.57877457</v>
+      </c>
+      <c r="T37">
+        <f t="shared" si="13"/>
+        <v>550435239.93721187</v>
+      </c>
+      <c r="U37">
+        <f t="shared" si="14"/>
+        <v>523096164.61721206</v>
+      </c>
+      <c r="V37">
+        <f t="shared" si="15"/>
+        <v>497215079.75873125</v>
+      </c>
+      <c r="W37">
+        <f t="shared" si="16"/>
+        <v>474016599.08540791</v>
+      </c>
+      <c r="X37">
         <f t="shared" si="17"/>
-        <v>121425742.574257</v>
-      </c>
-      <c r="O37">
-        <f t="shared" si="6"/>
+        <v>450683049.66672939</v>
+      </c>
+      <c r="Y37">
+        <f t="shared" si="18"/>
+        <v>426704483.37416208</v>
+      </c>
+      <c r="Z37">
+        <f t="shared" si="21"/>
         <v>950115830.56876659</v>
       </c>
-      <c r="P37">
-        <f t="shared" si="7"/>
-        <v>867143192.1401149</v>
-      </c>
-      <c r="Q37">
-        <f t="shared" si="8"/>
-        <v>784775157.45027566</v>
-      </c>
-      <c r="R37">
-        <f t="shared" si="9"/>
-        <v>701734953.25233996</v>
-      </c>
-      <c r="S37">
-        <f t="shared" si="10"/>
-        <v>624918553.57877457</v>
-      </c>
-      <c r="T37">
-        <f t="shared" si="11"/>
-        <v>550435239.93721187</v>
-      </c>
-      <c r="U37">
-        <f t="shared" si="12"/>
-        <v>523096164.61721206</v>
-      </c>
-      <c r="V37">
-        <f t="shared" si="13"/>
-        <v>497215079.75873125</v>
-      </c>
-      <c r="W37">
-        <f t="shared" si="14"/>
-        <v>474016599.08540791</v>
-      </c>
-      <c r="X37">
-        <f t="shared" si="15"/>
-        <v>450683049.66672939</v>
-      </c>
-      <c r="Y37">
-        <f t="shared" si="16"/>
-        <v>426704483.37416208</v>
-      </c>
-    </row>
-    <row r="38" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AA37">
+        <f t="shared" si="19"/>
+        <v>688366223.50197089</v>
+      </c>
+      <c r="AB37">
+        <f t="shared" si="19"/>
+        <v>494541468.15756983</v>
+      </c>
+      <c r="AC37">
+        <f t="shared" si="19"/>
+        <v>351042185.56452578</v>
+      </c>
+      <c r="AD37">
+        <f t="shared" si="19"/>
+        <v>248163755.65928343</v>
+      </c>
+      <c r="AE37">
+        <f t="shared" si="19"/>
+        <v>173520143.51111537</v>
+      </c>
+      <c r="AF37">
+        <f t="shared" si="19"/>
+        <v>130904307.32980852</v>
+      </c>
+      <c r="AG37">
+        <f t="shared" si="19"/>
+        <v>98774633.385648862</v>
+      </c>
+      <c r="AH37">
+        <f t="shared" si="19"/>
+        <v>74752103.547787398</v>
+      </c>
+      <c r="AI37">
+        <f t="shared" si="19"/>
+        <v>56419577.067985564</v>
+      </c>
+      <c r="AJ37">
+        <f t="shared" si="19"/>
+        <v>42404753.344765238</v>
+      </c>
+      <c r="AK37">
+        <f t="shared" si="22"/>
+        <v>3309004981.6392274</v>
+      </c>
+    </row>
+    <row r="38" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>7.78</v>
       </c>
@@ -2774,52 +3607,100 @@
         <v>3.8864438850214089</v>
       </c>
       <c r="N38">
+        <f t="shared" si="20"/>
+        <v>121425742.574257</v>
+      </c>
+      <c r="O38">
+        <f t="shared" si="8"/>
+        <v>1086040730.8315482</v>
+      </c>
+      <c r="P38">
+        <f t="shared" si="9"/>
+        <v>987152782.14167428</v>
+      </c>
+      <c r="Q38">
+        <f t="shared" si="10"/>
+        <v>895736186.59218431</v>
+      </c>
+      <c r="R38">
+        <f t="shared" si="11"/>
+        <v>805452228.97237384</v>
+      </c>
+      <c r="S38">
+        <f t="shared" si="12"/>
+        <v>714884341.37672532</v>
+      </c>
+      <c r="T38">
+        <f t="shared" si="13"/>
+        <v>622313839.32699943</v>
+      </c>
+      <c r="U38">
+        <f t="shared" si="14"/>
+        <v>589642409.76882148</v>
+      </c>
+      <c r="V38">
+        <f t="shared" si="15"/>
+        <v>558313146.15445399</v>
+      </c>
+      <c r="W38">
+        <f t="shared" si="16"/>
+        <v>529935627.2745921</v>
+      </c>
+      <c r="X38">
         <f t="shared" si="17"/>
-        <v>121425742.574257</v>
-      </c>
-      <c r="O38">
-        <f t="shared" si="6"/>
+        <v>501319989.2589947</v>
+      </c>
+      <c r="Y38">
+        <f t="shared" si="18"/>
+        <v>471914334.71190488</v>
+      </c>
+      <c r="Z38">
+        <f t="shared" si="21"/>
         <v>1086040730.8315482</v>
       </c>
-      <c r="P38">
-        <f t="shared" si="7"/>
-        <v>987152782.14167428</v>
-      </c>
-      <c r="Q38">
-        <f t="shared" si="8"/>
-        <v>895736186.59218431</v>
-      </c>
-      <c r="R38">
-        <f t="shared" si="9"/>
-        <v>805452228.97237384</v>
-      </c>
-      <c r="S38">
-        <f t="shared" si="10"/>
-        <v>714884341.37672532</v>
-      </c>
-      <c r="T38">
-        <f t="shared" si="11"/>
-        <v>622313839.32699943</v>
-      </c>
-      <c r="U38">
-        <f t="shared" si="12"/>
-        <v>589642409.76882148</v>
-      </c>
-      <c r="V38">
-        <f t="shared" si="13"/>
-        <v>558313146.15445399</v>
-      </c>
-      <c r="W38">
-        <f t="shared" si="14"/>
-        <v>529935627.2745921</v>
-      </c>
-      <c r="X38">
-        <f t="shared" si="15"/>
-        <v>501319989.2589947</v>
-      </c>
-      <c r="Y38">
-        <f t="shared" si="16"/>
-        <v>471914334.71190488</v>
+      <c r="AA38">
+        <f t="shared" si="19"/>
+        <v>783633705.27682054</v>
+      </c>
+      <c r="AB38">
+        <f t="shared" si="19"/>
+        <v>564465738.49049163</v>
+      </c>
+      <c r="AC38">
+        <f t="shared" si="19"/>
+        <v>402926645.61716145</v>
+      </c>
+      <c r="AD38">
+        <f t="shared" si="19"/>
+        <v>283890407.80127531</v>
+      </c>
+      <c r="AE38">
+        <f t="shared" si="19"/>
+        <v>196179275.73331219</v>
+      </c>
+      <c r="AF38">
+        <f t="shared" si="19"/>
+        <v>147557440.57032019</v>
+      </c>
+      <c r="AG38">
+        <f t="shared" si="19"/>
+        <v>110912115.44218251</v>
+      </c>
+      <c r="AH38">
+        <f t="shared" si="19"/>
+        <v>83570497.236014292</v>
+      </c>
+      <c r="AI38">
+        <f t="shared" si="19"/>
+        <v>62758654.426065423</v>
+      </c>
+      <c r="AJ38">
+        <f t="shared" si="19"/>
+        <v>46897587.775683179</v>
+      </c>
+      <c r="AK38">
+        <f t="shared" si="22"/>
+        <v>3768832799.2008753</v>
       </c>
     </row>
   </sheetData>
